--- a/AVERAGE 3.xlsx
+++ b/AVERAGE 3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhruvit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tisha\TOPS\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B666111-5D7F-4308-94CA-44FAAFC018FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6C7C7C-8DBD-4219-B4D7-795566C00F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,7 +370,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -510,21 +510,30 @@
       <c r="A16" s="3">
         <v>43101</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4">
+        <f>AVERAGE(C4:C6)</f>
+        <v>144.33333333333334</v>
+      </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>43132</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4">
+        <f>AVERAGE(C7:C9)</f>
+        <v>136</v>
+      </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>43160</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="4">
+        <f>AVERAGE(C10:C12)</f>
+        <v>194</v>
+      </c>
       <c r="C18" s="1"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -538,8 +547,8 @@
         <v>16</v>
       </c>
       <c r="B23" s="4">
-        <f>AVERAGE(C4:C12)</f>
-        <v>158.11111111111111</v>
+        <f>AVERAGE(C4+C5+C6+C8+C7+C9+C11+C10+C12)</f>
+        <v>1423</v>
       </c>
       <c r="C23" s="1"/>
     </row>
@@ -547,7 +556,10 @@
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="4">
+        <f>AVERAGE(C4:C12)</f>
+        <v>158.11111111111111</v>
+      </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
